--- a/biology/Médecine/Centre_régional_d'information_et_de_prévention_du_sida_et_pour_la_santé_des_jeunes/Centre_régional_d'information_et_de_prévention_du_sida_et_pour_la_santé_des_jeunes.xlsx
+++ b/biology/Médecine/Centre_régional_d'information_et_de_prévention_du_sida_et_pour_la_santé_des_jeunes/Centre_régional_d'information_et_de_prévention_du_sida_et_pour_la_santé_des_jeunes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Centre_r%C3%A9gional_d%27information_et_de_pr%C3%A9vention_du_sida_et_pour_la_sant%C3%A9_des_jeunes</t>
+          <t>Centre_régional_d'information_et_de_prévention_du_sida_et_pour_la_santé_des_jeunes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Crips Île-de-France (Centre régional d'information et de prévention du sida) est un organisme associé à la région Île-de-France qui intervient dans la lutte contre le VIH/sida, les hépatites, les usages de drogues et les conduites à risque des jeunes. Il a pour objectif d'aider à l'élaboration de produits adaptés en matière de prévention et à la mise en œuvre d'actions.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Centre_r%C3%A9gional_d%27information_et_de_pr%C3%A9vention_du_sida_et_pour_la_sant%C3%A9_des_jeunes</t>
+          <t>Centre_régional_d'information_et_de_prévention_du_sida_et_pour_la_santé_des_jeunes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le CRIPS Île-de-France est fondé en 1988. Il fut présidé par Jean-Luc Romero. En 2009, il forme 160 000 lycéens et apprentis franciliens sur les questions de sida, IST, hépatites, addictions, etc. En 2016, Jean Spiri, conseiller régional d’Île-de-France lui succède[1]. Il a un budget de 5 millions d'euros et 53 salariés[2].
-En 2019, à l'occasion de Fonds mondial de lutte contre le sida, la tuberculose et le paludisme qui a lieu à Lyon, le Crips IDF lance La Boucle du Ruban Rouge[3], un projet inter-associatif qui vise à interpeller le président de la République Emmanuel Macron sur l'augmentation de la contribution de la France.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le CRIPS Île-de-France est fondé en 1988. Il fut présidé par Jean-Luc Romero. En 2009, il forme 160 000 lycéens et apprentis franciliens sur les questions de sida, IST, hépatites, addictions, etc. En 2016, Jean Spiri, conseiller régional d’Île-de-France lui succède. Il a un budget de 5 millions d'euros et 53 salariés.
+En 2019, à l'occasion de Fonds mondial de lutte contre le sida, la tuberculose et le paludisme qui a lieu à Lyon, le Crips IDF lance La Boucle du Ruban Rouge, un projet inter-associatif qui vise à interpeller le président de la République Emmanuel Macron sur l'augmentation de la contribution de la France.
 </t>
         </is>
       </c>
